--- a/data/dataframe_screenshots.xlsx
+++ b/data/dataframe_screenshots.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="690">
   <si>
     <t>id</t>
   </si>
@@ -28,58 +28,2062 @@
     <t>steam_appid</t>
   </si>
   <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_8cb755d4a265c9c3301b0e40fc02e97a3f2319fd.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_548fc2008d97a597184cb2dcf5066d2e4e120deb.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_0768fa0ecc88ca88ac926efac9267f1ff4f287e3.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_9895ad4a224ea1b2d52f74df5f795b83b08e4067.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_0f9ecb37c1e19907d6917b9ee5b068adba690498.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_f06eb470b35c80d4ab099bae560aa0982eb74ffc.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_4afdf05293a40622f8d6f1762867124692f1ebae.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_391be2eae588725975c3b2869c76810751702b2e.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_25bef743d1ff6fb2eb683ff619a0d4597f38a564.600x338.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_8cb755d4a265c9c3301b0e40fc02e97a3f2319fd.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_548fc2008d97a597184cb2dcf5066d2e4e120deb.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_0768fa0ecc88ca88ac926efac9267f1ff4f287e3.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_9895ad4a224ea1b2d52f74df5f795b83b08e4067.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_0f9ecb37c1e19907d6917b9ee5b068adba690498.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_f06eb470b35c80d4ab099bae560aa0982eb74ffc.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_4afdf05293a40622f8d6f1762867124692f1ebae.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_391be2eae588725975c3b2869c76810751702b2e.1920x1080.jpg?t=1644849953</t>
-  </si>
-  <si>
-    <t>https://cdn.akamai.steamstatic.com/steam/apps/1877220/ss_25bef743d1ff6fb2eb683ff619a0d4597f38a564.1920x1080.jpg?t=1644849953</t>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859530/ss_7bde1e7dc9c4a33ae7e35c0cde4aa8cadd59aae3.600x338.jpg?t=1642610979</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_c058ab29830b1147b1b8714466fd29bbce4f182a.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_50eb3ae8780f9ec181296170801b55efcd8411da.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_e1ff408ef7c23bb9af2962fa29323ada514f03d0.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_5e247c22db8fd7e2c30696b42596372b5f8a6b36.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_1dbf04e7f9a8a00a0919a10a5ad4646e8ac25d6f.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_f6b0437b98e4b53a8c744bb860704be89064c2f2.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_dd97beb1b4fbfafd2d4d464b91d19794f2c4a245.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_f1d1907f4a6901454ae24d0d228f934e703bce14.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_aed279fd16a5299e0abc0d2accd0fd0e8e8df73b.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_0ae6887bc35750261624c9ad47c3992b0f6f8f82.600x338.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_e7b9a8539fe9c814bced3a36ddd2373c0080b99a.600x338.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_efd576fb75e807e2bfc4986b8a2001c6f0468a02.600x338.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_dccabcbb7e074f0aad047a68ff786330cf1788ca.600x338.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_e77ff255ee1f3c8bf2dd856d6f3ff38abd5f3c2b.600x338.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_613abad235e2ac96e98d85e1d4c2f6546508c43d.600x338.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_0517a904176403d83ec6e70548107acbe4e98a27.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_89235677eeeaf8be498c9d84fa4410d9177f5ef5.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_9b715a1072dd5ab7eee22be439cb5ad7eaed5884.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_1b752abe45f88708539f94f7a642e622387b1257.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_63d980d7d2360fe209031ffd8df96ebb305ccaa5.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_5b3438af4b6b020ac1c85ef7cf03814da707731c.600x338.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_650b2da7a2d9821bc9437d4d3ace141bee24b068.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_9d7ce03f73aa0ede5e5fc777cb6e0be1c7f800bb.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_f29de17ee9e6a49c16aa13274e2fba7e2d7957dc.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_9224c39646565824f0685a6509c4287b18e7b8a8.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_2ba068700983bdf8e6ab667be3bf0bcb2536c242.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_e5745f6b3ea3b50fb6332fde6b9ca806c1d52b81.600x338.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_fb2ae4dab33dc2597b69bf6d407defc9d2debad8.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_3b14169e58fc6a76f2dcac3c789b7d5812fadad2.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_597daae79cf29548ae820876c9d4e1c264eb44a2.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_2e18d2050831da1b7ecb2a813b8f771afd62c52c.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_d1d7a15f5da54caae140f0a43e0f688098be6c1a.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_a578ab1c181e117c1ed36bf934edb0eb866f0e57.600x338.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_523ffe260a5b5d023749ca854981e0e024e34c90.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_fa223c0bb2b7ed8fb7a85183d285424d0d5c5f17.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_31421fc861c00dbe5fc4fd6a07f4ec8fc1478eaf.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_e77f170232e73d63a0f95f6b1d552c339b8a8521.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_a5365715411d298d22802b845d8bdff95dbc75ac.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_37fd125187bd45c6481a950308bd3f716c9e8b5a.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_b2e04fb18f9d233b95ddd357ea9af3d05927cbc7.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_d355591882712d3b38963d4b9a965a11f67a328f.600x338.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_336f4386268b47f52e6eca8ec16d4c9eb8e0b76c.600x338.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_466c1594e675312a0bc4f0d404b622f7497f543d.600x338.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_642809fae439f279a2abc1f34fe367df5db95c47.600x338.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_71d5289d5ee3d6c1c422ce324841b236e4a2137d.600x338.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_f6d7fd557aab1d60e1cef90c08c98e68d007316e.600x338.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858670/ss_e1e0ee3d9fe1a795333ec00c59cbb943224ed52c.600x338.jpg?t=1645791613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_dff308b424c8b47a3c03ca6ffd113405c38300b6.600x338.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_79aa9fca82a811cf3351dc21f1db4e22ffaccd0a.600x338.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_aeb7b890287f8fb86996dae5a241ddae114c4403.600x338.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_055b2006e1f84a27cd400c616fb6ff2f73205fec.600x338.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_e9366caa38f4d405654c8b4a04ef15d66c9fb1a9.600x338.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_acf426cad6d43958b63a77b6f3ded063f7b4e4b3.600x338.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_df53fe8bc038f3d18940f8304361651714f4b388.600x338.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_6f86c924e72dea6357cdd60144f707cdce03f45c.600x338.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_d4bd2af59623ced2690037ddfe282e615043b636.600x338.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_775048ea04bb69b10b34878adcf20b5ac24e9178.600x338.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_e178ca482cf490eadf35bc9ec8ba0a35a00fee51.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_6ff09e933881accff7d2cc89e2ad9bc56daf2f30.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_c3d6d6bd069a61d8d548348f39897f4d0450bf48.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_9d33f60ec4a76616ae8643d0fa36df157a3e3aee.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_07e297700330e8376efe549c701f9b7e3b2f7afe.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_a1268186492622cf356f6372408df7fd7a5471e2.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_6726f655415ecab918cdaff820aed5da4cc5b756.600x338.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_313d26d23e023bedb4fee6c2fdb655f696f05ed4.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_8bb690963af52fe66f46c6b081131a6006fb36c1.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_44bb8052dd261ff54bd66a2c40fd7f28bac3dccb.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_7825e38eefb2b1cfd9380925427dfe198d0fb93b.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_fbc794bdca68ed07301f85ff867d6948acd1939d.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_8b6d4b258622133e628dc88dc96c0a5cdb153c3d.600x338.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_71ddaff8761a25ad22f6ba0c3b410748a398e61c.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_a7e91968ef0ce40bb6b5e838a27ab74bf9ecea11.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_f1cb62461520bac85bd5aa972e368187edfc7988.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_fcf03e200e982652fd5d73f3b42b8d345102b8f3.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_724206992fdb828c3275ff45c031dd5bd5bfb864.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_deb770feab75ebdd9cf33a8fe22fee42cd12d296.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_3e69c82b9be28467fb79c9cc8c82748572e3a477.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_6f01afbb981f0ad4e1d7e09e7642cd263b1b2aa5.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e5ad98e41f23904e38a234fdb14fb795d1dae90c.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_c93b7fdc7c1bf3ee97afc278f6ef8ee1ddbddd9a.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_b5b91c2c7d75302093dc5e01afc54a735df572d4.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_af6cdaf3b08a59c4d427f2fe387c477833bb66d1.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_0f60fae4297695515e82c0fb3ec0ebc80da7bad7.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_84d8c48e0922983297414686c033428e5abca308.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_5e6f441de7bc02a62b337912cc10492c918f939e.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_bab54705a971b9c2a00689a824f3685550edaeaa.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_d1b2ef39644fc1927f682f40e24de83f6b2f7f3a.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_4563265adf41029e22bfedda527160ca27145d81.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_becc63bb350ad63b799490df7f297014415c7edf.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_095d3d0d492048438131f04834e0cbb7149a0f62.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_388565f3875f0514b6112a0350877592c3a9331b.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_03abc28d228264bbd83fb7171eb83dfd3719cce9.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_c140ee5d93564f2e4aa049a63e6474a94ecaf1c6.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_2144a0786c0830db4c19dc9b0a49ab746b28492a.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_3d730c1b098f1603ed936c67061b4d4869cc4d69.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_65c417855755334d48e4c57a0d60c2dd76f71691.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_17acacc5c867f80bf75a1d0d3f8323652243858b.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e3ff4872fb773edcc2932656a96c70b3d05ef561.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_fad49bfc91f56ea44d9f0ceffd0659666b053d91.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_ee045d1917b24321716034393e636cabc29e47b4.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_801a648d073c30c79a05ff2ba9935367f38b1f85.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_1537b3e47f3f4ea793eac228b1d156952e9a927f.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_2ce660a0d170516594c5702027e9b99aea01564f.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_cafe115f6c756bd1e61b688a91354beb58bfe9e0.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_bc5b4597f147ca35049684fe4ef9b2f9a35a2fdc.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_0758bae0a405488e500a3d3c9ad5f80b9c390123.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_1438f877cdb7b563ad28238299d3fa3f1d4a3469.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_670852dd4888a7162afd544dd03b8d81e0a5fe60.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e4d5216e61992467929c173b74866772c5585318.600x338.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_adec1ebc0849460aefe38d7a1791a40d910e8bb9.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_c4035ab63ad107bf330764d57f6a8731c8737b8c.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_7f919beeca9961882bd2d7617e7996ece975543f.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_25492f96add3db8f78bde23246d932465bd83058.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_b4305085de4f7ad8ec232e233a4dec06b62bb4b9.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_bd32427e2fdc34bc124c1f7e0e087cb9b696e39a.600x338.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_23e6336b3be5eeaf7968250db788a157388a7a00.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_e2405a7d88320b7df883e881d7eb07ddbc727912.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_751dec1b4e436a9a670355846c96c3e3b3dcac60.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_aff6c633ef45a906c6ef63dca416f4cfa1a18e4b.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_ba05e304f4d3b54639f52c4c0154232ede1816be.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_d39c850267f94163c71bdee8d4299674f77cdf54.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_01433486cac05996e9387da30a2948b5d97870f5.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_c0853e20e607619db122c2aec37eed7472e0eac2.600x338.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_19fae7b1f91948158ceb1c01edf2c0055b9b46c9.600x338.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_0a7cbb7a09c22c93cd1eea58aea6b3bcd303dafd.600x338.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_e07527e7c87ee9472f39c07965b84bfa2758b55e.600x338.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_29fe28ce8d7cdde91f20164ad3f295cc4c60baae.600x338.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_9495bc9414280ddd5028e5a717ca9e45c6267b94.600x338.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858870/ss_c6f874455a8563dd928ed331857b070d4b795d64.600x338.jpg?t=1640427108</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_770f4aaa354425d80e99ece160d83b6101f43efa.600x338.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_00ff00a702383e6af7d2a272ff3be1ba46208e9e.600x338.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_8667f3e2f70673ed9172aa204fd0e432431b7cf3.600x338.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_76e0af2b692e0e7926647b740709ba3afb8a423f.600x338.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_521e42c46eaa582e04ccdd4cf6e66bd31c0ded30.600x338.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_919b159afb0dbeab4070f58d9e03d30275922e73.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_a5eb5a5353d2544a75a4169fb365b11157720d19.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_1943450144f384ac7c6400a50256cb2b69b9188b.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_aec5168496617efe61695b0596210c4b87ade997.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_bd6ec4b5d678be06601c315734e93fc3d4723021.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_66f2851233aef8957a19f175a1e7b9035981d876.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_d62ffb4122e5a2ecfbc1e6d4de5535e6a80fe362.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_e23ed17151b54e4b8dce537319586c688f82f66f.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_4cc238a9bb25b78832d4025ab8035b40f3a2b2ac.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_8b1f2ad7e9dd098b52d5a4656929df3e1dfeb868.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_73ca6f2d3ca0605a1d793b68c88f43da659c554b.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_bb7de3772236142a1e0cb9c413addf0753573a3d.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_c711fd116c54b8038c63a0e34b8b0dc820ee9323.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_87cc854b304c0efd997ae5e8e9655ec87268efdb.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_ae5bd018912d1b9dd781f59b00586630d2e2df1d.600x338.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ce641adf0fa331520f893dbbd64f6ae95656632d.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_3e3aebdd737c6725b34f8a217592c2cc04f57679.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_b42604322b068fc708bc96c3a61e50821f982393.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_d805abf64754a1e64071c2dfa13340317af1a218.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_4d54b832ffdda0ab19b1b28ec2f83e9edfb0efa0.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_60dace7e1be0defa3cbccbfe42945672496d6ba6.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ef2f4d87f75a220ac82c61321d2c0bb497f6194b.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ec34ce8ff7bdec3d2e071eea5138508cfda49fb9.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_e1f0d3580b3bb8e7906eba016986c7d96674b622.600x338.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_8901aba6e222fb887b2ab17570faf3c03f2b88c3.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_de374cdb9b7a6785b6ae1a0dcccc0970e7563351.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_0e8d215f35c56a22cdd7c1a4f855f556c613b3be.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_6d76c17b77b3a63c2635f7116fdd5029dbf77c4a.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_330f7c07ee4ee9dc64c0cc4cffa29a88cf7384c8.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_0e2b3426c4bf0c20886157ef4f1f686806529c4c.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_4742d4785775c24f643fbd1188f7e13b2d2265e7.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_32fb1ac20a7dfa7df8965f23b8c49155a68cc151.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_c8a0d74b75b27f29235fe6b8e6e7adbbbb8aeb2c.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_d0b10ae6cc7cab3fe2c9365c582695fd5cf75286.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_f645396877f7177e8bbbee42e3c2f55757dfd98b.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_b1c2d2171c83560bf37bc6c0dd5530a818846f7a.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_d718952a96571ab8ac4122fe5e582858460ad204.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_836d88ed0bfd613b8b42658a42027a66c9351d69.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_62da4e5120568f6bf55c3230f64b98a3c078049b.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_3e25ca412c9d35f73782cf24b0a86972863f9615.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_2ba5470acad746b83354990f9d1e933ea3000a39.600x338.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_167d78241b843a2e1934cba8fae338f10e1dee58.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_def69bc28e6118c49e824ebacc680d0790a2c699.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_a95ce847175dd2ab40028e8a03c7a460ea178cd2.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_42aa0ad7c031df07d7108cdc0b2e885621b3227c.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_cb20132c9c429432835e3cbbd9b6ac561520bd75.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_0ae392891c2ea75264e78fa2b5a2a66532571777.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_418dafdd5df4ca20389f06cfbe6e21c08fc47992.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_6860a90775be6bf5702e96b6643b9b29d7124b4c.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_30f11d87dc74230a5ad90079ddd552ffd6c57c85.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_f84adb046da431d8ac511813881a381b94171551.600x338.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_75a67dc40a836cfa74e98cefad770c181c025d97.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_b13cfc9dadad701dd16c16fe8b2144c3dfe5e632.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_b4e1acdd52e7b3f93d134aa95726092e3d73b7a7.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0128e0a3da92a39850eaa2e9523fc63de75a6110.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_ba8fee1aa87bcf800e04c6fa9b681d2c162a3609.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0a1ccfdc033f3ea4201fdc777764d0926137c114.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0c2d7de9263524a31410258550f17f8492cdadcf.600x338.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_c3bfd7ebf79cc440cf769e9cf777e77f7244724b.600x338.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_5ceb33a3a2597dae77fa510afc7d5befb3a732bd.600x338.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_f4fe1307be106aa18d96c5d038dae96f94bdb264.600x338.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_7ba02899afe3506db68e0dec9bb66ca1fbe152da.600x338.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_e55527836b24c8179d3a1d9c8cf01d1883aac8f4.600x338.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_9e75ba64cc447008f88c043c2dbc0f4cf5a72ed8.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_b05b6584f2d83374ba3d58554c1e4ece0bca509f.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_d9157feac73d9c699c0f1d59acb08eacdc873b18.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_bc6a7195d46f5fae28e4cdc4ec5c6cd2d23265a5.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_fd64d862010e7669276d4d74e157394bf44ba4cb.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_b0412acd9a021d910da90b80e746be5d42695e09.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_0a3c74cccea303da1fa6c7edf64a66efd5f5d360.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_bd7c86345b044666452ba809eb0e767f48595617.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_02ae2ced9f9e65459d564e6160dfb1a2e006156a.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_34346caa87fd501279977ce47061cefa3ab5a1f2.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_0e124dca59f5ba90dc293114e96e47976530e61b.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_1c487d20ecdc03c64edc3c43a398f02c55b31bf6.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_ec89ac77e27f505caddf50c96841d78808bc3257.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_71af79cbca58f91aa5da5d7f8fa63e1ab6c6307d.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_1f20472fc6193dc7824050611725ba11a66f0cff.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_73edd4bcf84edf653acd6a819e9c8add1cd3431e.600x338.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_d3d3d0183d90392b3c6749ce830af0d3838cc889.600x338.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_f15d55621b05837e28781a7e83c22718c053967a.600x338.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_6d330d5b036b7f3760668ac334b34742e615ddb0.600x338.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_564d23130ba6eb979355f2deb7ea25c1409159b0.600x338.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_5064c857a76ff271b16ea7ac634a33f57b11d42a.600x338.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_89b5aca4c6a9d1b5fad888dd77e1957f638d0c34.600x338.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_aad6be14bad9be9700213a98547ce07ed3904f08.600x338.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_c678a741eec29ef9fa819274ebde81076cc78f06.600x338.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_6fafe6c8621a0fbf2ce57e4dd8c7865104994e00.600x338.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_2062b69d5c4ad601f9fe04c52cf5f0ef34d092be.600x338.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_51b836ccadd2f03d23a262004dbcac05abf8db78.600x338.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_dcdca1eef6b90b88a118502cdebf444e36bf0f72.600x338.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_b2dad632f8528a97fe7a13f5f67c5873023b3b75.600x338.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_317f39d991aceb4230c312299bbc4fa282ac6ab8.600x338.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_1358c1b789a51be9a7d0a1ad7410871772a59a69.600x338.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_68695af6777ce7825c8427a6af45364ac19896a3.600x338.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_872a474c93cdce7459f283e82459fee245886317.600x338.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_452c7f86c9b986479b4a1e24038f63856900d7e4.600x338.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_3f73f592e61a505bdcc4fcaa9a09a10100f2d1fd.600x338.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_53ae1b96ab6b0c7b74a3913426044c6036eda703.600x338.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_2f7db3d52ddf37c3de6a69494695485915beb5e3.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_36182824d55a54c235c44f91c5174749c271f551.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_0bb9d2e878c68a57aac0d29efe26520139a557e3.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_7ab4fe112394b079be76240f6295abcc547bde2d.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_12ce3a609f112bef7b60ca98f6dc79c7002133d8.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_db1b19fafbdd2c1ebd066eb9d1522994354fe31e.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_05d222f6354cddaa34390bc9314232e6b1e1f8b3.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_4911c4aa97029fff2f0b56742ae4f8198b60b170.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_41b5c01bf09c9111982977a2293d2702df2b16ff.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_8c1958d8b69e0591319a3963833e015615eb675c.600x338.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_3ff35551687571d9d4f8e251cd936361260a01b6.600x338.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_2ceb28e6f28203e968d6e07914a796d19d1808ed.600x338.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_9b82c0be6cf0d563cb3f007e50946c18f61a1363.600x338.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_f0ce6bcbace3c8da030ac9b381f4854504c11808.600x338.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_f1edff136607eecbda4b221de8f21ba20beb0ef7.600x338.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_965c50fd37768507254a75aa12e1ee2da5bfc7e1.600x338.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_a8797fc3338fa2677d80479ab0ddf1bd5c01d2d1.600x338.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_597edc19fbaf371cc84233c5f4c24b190232b73f.600x338.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_fb7233d7ae3dd8a1206a16e4408c1ef2ff677305.600x338.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_3691f9de24cb4cdfb0575c7e5b27e7736787d0c9.600x338.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_8a991e507af1caca23752ea3c61af8b465eba19c.600x338.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_84b2dbe07060048f32c71cce1adcac8c3298441f.600x338.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_d5916e0a88c28c094741910fd0b615841b29bd37.600x338.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_96865279a8b0b8e2414bf4063cbc51d9920437e4.600x338.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_c28123175a5bffc2a1f58c921d238cbc241eb1d9.600x338.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858300/ss_05b6bf98929f6c74d72ce1da8cc4605f6ca87436.600x338.jpg?t=1646895484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858301/ss_40cea15ec62a90785902c6629800f2130e47dd7d.600x338.jpg?t=1646895481</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858303/ss_d36c6b8789e245c65eec9df47e69f379a2794adb.600x338.jpg?t=1646895476</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858305/ss_d86d08708f9d4896105748e1b770ba01d9e18e00.600x338.jpg?t=1646895474</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_144bc3ec92bb2adc54189f45aaf06f1ff347538e.600x338.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_881099002cf2a7ae8b586ade76da2150ee23fcec.600x338.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_aa59cf1e11289d592805971a7ec8ebfd07b8a7f8.600x338.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_51d7c02f71f936428dcb4ba9346a79745860c27b.600x338.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_8ef9cd14fdfd055abb4367d13fd973cf81ebe13b.600x338.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_150292249c778d95a121b0357146202c5cd89a5e.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_ed4b329b7d2459609972bcb9c9315541e006af68.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_eb5a3f14d6872b48aa2b6869ce6f441849d4c764.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_6e2deca2a05f68c9c1a3f899e8e17cf45380f520.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_64be72a46bfc08e6c85fb71f7d7317a19fc75f91.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_ce98f2cc045a79ab3a0f6c3929fd09b3ad4c32a1.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_fb6db9dd24e2c57eb2ca03dffa9f8dee18e20afe.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_edb2cc4c7edb38856359b639bb34dceb80832f3e.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_e22e9771ff2b5df76601a637a015991691eeaa65.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_afb0952bd74950370caf759fdde0f49df444cf25.600x338.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_36babcb0ea1f7d0671e4d75ae89369e2d50e3eee.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_5704bf195bddf4467006e049d7ba72adb130c0ff.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_f06e3c154b390910a865eaedc119f920bb0d1c5f.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_002b619806b30f222d49bb61922b7db61f0f9a09.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_4ae3b067b0b2235d411a2794bf076d1ca24fa94d.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_bb0f35a46b3b9ec7bbba7ddfc4c0865aa34917d5.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_e2700507af55c2a5ce839455ec550ae7abd62108.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_ea0944b3f90fb128a9d94cc926a98bfaf67be900.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_a9c118e09cfb1f2ea11d66c0d8fcd3e659377949.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_441ed3991ef1923be507647085224186c9d6b81e.600x338.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_ca31be70a75acdc7057a4f6d7368679fd0a7e7b3.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_e4a7446759550109bb5c211e260e3040f4502698.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_db55acf5fb2d3255f9a83f399ff39b984377825d.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_733f38d27ac83c52e410178844057407477d337a.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_00875bd938d530b0ff0b7851838b61a1c1130e29.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_a40621e95e439dc59bec7daf91e898493becc060.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_f9f32e2f1c89307ed725a47776dd83362af932ad.600x338.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858490/ss_878746f8eca5d04128b0d34d200498dd95b77d6e.600x338.jpg?t=1641474941</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_dc1993615c5f1ceee43b6b40d8d1d3b464453315.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_2b46d25514e5b7c8b2300b53dfe8d83b81d1b9d9.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_cd9013d920f508f638f32d6c2feafe0ecf1c1b0b.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_01db998843ec1fbe9a43567f167ec90ef282d211.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_a5f4540309a2c2869b8ec764e3aceb70b1f196ba.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_6310079f2c89af75476807a4e91c99a24d58969e.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_81baf142dc16cb06ef9957d90dcea1e142d2cd9b.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_98d0768f98eb65625e62802f4cd8e8401af38849.600x338.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_3d85dcd590a4f70dde3c13aac02fe54d9a360220.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_cb8ae410a202085d9a8fe91fcbd532cfc842ccb0.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_b39bd959d90c2be6a2cf48e1fbd8cc54befa9663.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_5b035228cfe7d362b1dcf8f4b4bee38cf48e6516.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_4537cbd075a217e641ab95c75dc7bd6d2047e873.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_adc5f772f20e22641f9c6fbe8099c7a5b529831b.600x338.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_197d445d002c1a0203ab381f4be564e6c8922fd7.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_0d30c2f8c0964ef9cf539ab7355ae411051f0d11.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_960dc6d253b5421610b343f7a0e6ea997a77bfb7.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_89aa4204481977036ce789ffee7c5e34022537de.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_97392396b539d7f5e25f05f58afcebf564ed1008.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_d725115963165b44f2d568b5db0c9794eead3f40.600x338.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858570/ss_a321767236035d2bd1e2db7045052226fdd9a277.600x338.jpg?t=1641474846</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_f7f236e395b24ce6a156f77dfb3336f891d06ab9.600x338.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_9a9e08d5665a888b6b1897ba78e7a0edee877ded.600x338.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_be702d2db578ca327c95177171a73d84392e69af.600x338.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_f71390ac40488b5a4d2ceaf07a37bc3828b57ffd.600x338.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_4c90276e5f7b802777957cd26b7eab401bb8c860.600x338.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_994bc8e3db62656bf78bc478c70704b069deb5f5.600x338.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_523bc695a3092e4031dab58b3a1d49990ca21853.600x338.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_46f39aab79f80f4f2948a3b674781a55ce42ed61.600x338.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_4513c44951eb9df698566ae79645c9d0c5be1341.600x338.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_0cdc2a47eb33531d7206c712fb3a294e2f2c70c3.600x338.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858610/ss_c9628690348bf3769776431eab1d513109c5ae58.600x338.jpg?t=1641474876</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_2cc0aabcb11e500762c0e858f7237e512d82d0be.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_34c335659990697f5e72d2d37dcf5c8c5ad7e4c1.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_51bd427092320d88fbb5896c9f1162895df2dbc8.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_e03cd19beadb42eab2ebcd9e2814b4875a6a9519.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_34938543723731b49ddfc24b159ad64ae9020550.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_bfb280eb24ec7c262012b7aa931ab255e3132fa1.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_1481d9879615c4755f66b85d34d5b214eacf3e8d.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_52e6c173d632b1e3302ba13cf1aa8f6b9b4d3015.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_cf5046da1b01b88bb029d09189145e74c32cd72a.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_d2f47f12076c194025fca5238f2108cb51ca2138.600x338.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_dea6a21510b3ef014855bcc2f8b2d828e65d5ca2.600x338.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_33236218505ad8c5044d743f751bb4cca7713eb0.600x338.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_01a9ab35c8bf8441283665d55315f5bdeb4116c7.600x338.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_5ac7fd14092a4a5cb231f5de03ab9d1bee6d746a.600x338.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_13e6d93998b915713a1036938669753463ef2a53.600x338.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859530/ss_7bde1e7dc9c4a33ae7e35c0cde4aa8cadd59aae3.1920x1080.jpg?t=1642610979</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_c058ab29830b1147b1b8714466fd29bbce4f182a.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_50eb3ae8780f9ec181296170801b55efcd8411da.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_e1ff408ef7c23bb9af2962fa29323ada514f03d0.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_5e247c22db8fd7e2c30696b42596372b5f8a6b36.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_1dbf04e7f9a8a00a0919a10a5ad4646e8ac25d6f.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_f6b0437b98e4b53a8c744bb860704be89064c2f2.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_dd97beb1b4fbfafd2d4d464b91d19794f2c4a245.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_f1d1907f4a6901454ae24d0d228f934e703bce14.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_aed279fd16a5299e0abc0d2accd0fd0e8e8df73b.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859540/ss_0ae6887bc35750261624c9ad47c3992b0f6f8f82.1920x1080.jpg?t=1646512238</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_e7b9a8539fe9c814bced3a36ddd2373c0080b99a.1920x1080.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_efd576fb75e807e2bfc4986b8a2001c6f0468a02.1920x1080.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_dccabcbb7e074f0aad047a68ff786330cf1788ca.1920x1080.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_e77ff255ee1f3c8bf2dd856d6f3ff38abd5f3c2b.1920x1080.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859550/ss_613abad235e2ac96e98d85e1d4c2f6546508c43d.1920x1080.jpg?t=1647504006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_0517a904176403d83ec6e70548107acbe4e98a27.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_89235677eeeaf8be498c9d84fa4410d9177f5ef5.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_9b715a1072dd5ab7eee22be439cb5ad7eaed5884.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_1b752abe45f88708539f94f7a642e622387b1257.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_63d980d7d2360fe209031ffd8df96ebb305ccaa5.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859590/ss_5b3438af4b6b020ac1c85ef7cf03814da707731c.1920x1080.jpg?t=1642516913</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_650b2da7a2d9821bc9437d4d3ace141bee24b068.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_9d7ce03f73aa0ede5e5fc777cb6e0be1c7f800bb.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_f29de17ee9e6a49c16aa13274e2fba7e2d7957dc.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_9224c39646565824f0685a6509c4287b18e7b8a8.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_2ba068700983bdf8e6ab667be3bf0bcb2536c242.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859610/ss_e5745f6b3ea3b50fb6332fde6b9ca806c1d52b81.1920x1080.jpg?t=1643022325</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_fb2ae4dab33dc2597b69bf6d407defc9d2debad8.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_3b14169e58fc6a76f2dcac3c789b7d5812fadad2.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_597daae79cf29548ae820876c9d4e1c264eb44a2.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_2e18d2050831da1b7ecb2a813b8f771afd62c52c.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_d1d7a15f5da54caae140f0a43e0f688098be6c1a.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859630/ss_a578ab1c181e117c1ed36bf934edb0eb866f0e57.1920x1080.jpg?t=1642717698</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_523ffe260a5b5d023749ca854981e0e024e34c90.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_fa223c0bb2b7ed8fb7a85183d285424d0d5c5f17.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_31421fc861c00dbe5fc4fd6a07f4ec8fc1478eaf.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_e77f170232e73d63a0f95f6b1d552c339b8a8521.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_a5365715411d298d22802b845d8bdff95dbc75ac.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_37fd125187bd45c6481a950308bd3f716c9e8b5a.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_b2e04fb18f9d233b95ddd357ea9af3d05927cbc7.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859640/ss_d355591882712d3b38963d4b9a965a11f67a328f.1920x1080.jpg?t=1645231661</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_336f4386268b47f52e6eca8ec16d4c9eb8e0b76c.1920x1080.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_466c1594e675312a0bc4f0d404b622f7497f543d.1920x1080.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_642809fae439f279a2abc1f34fe367df5db95c47.1920x1080.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_71d5289d5ee3d6c1c422ce324841b236e4a2137d.1920x1080.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859650/ss_f6d7fd557aab1d60e1cef90c08c98e68d007316e.1920x1080.jpg?t=1642683831</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858670/ss_e1e0ee3d9fe1a795333ec00c59cbb943224ed52c.1920x1080.jpg?t=1645791613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_dff308b424c8b47a3c03ca6ffd113405c38300b6.1920x1080.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_79aa9fca82a811cf3351dc21f1db4e22ffaccd0a.1920x1080.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_aeb7b890287f8fb86996dae5a241ddae114c4403.1920x1080.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_055b2006e1f84a27cd400c616fb6ff2f73205fec.1920x1080.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858700/ss_e9366caa38f4d405654c8b4a04ef15d66c9fb1a9.1920x1080.jpg?t=1646072665</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_acf426cad6d43958b63a77b6f3ded063f7b4e4b3.1920x1080.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_df53fe8bc038f3d18940f8304361651714f4b388.1920x1080.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_6f86c924e72dea6357cdd60144f707cdce03f45c.1920x1080.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_d4bd2af59623ced2690037ddfe282e615043b636.1920x1080.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858710/ss_775048ea04bb69b10b34878adcf20b5ac24e9178.1920x1080.jpg?t=1642500012</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_e178ca482cf490eadf35bc9ec8ba0a35a00fee51.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_6ff09e933881accff7d2cc89e2ad9bc56daf2f30.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_c3d6d6bd069a61d8d548348f39897f4d0450bf48.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_9d33f60ec4a76616ae8643d0fa36df157a3e3aee.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_07e297700330e8376efe549c701f9b7e3b2f7afe.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_a1268186492622cf356f6372408df7fd7a5471e2.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858740/ss_6726f655415ecab918cdaff820aed5da4cc5b756.1920x1080.jpg?t=1643604925</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_313d26d23e023bedb4fee6c2fdb655f696f05ed4.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_8bb690963af52fe66f46c6b081131a6006fb36c1.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_44bb8052dd261ff54bd66a2c40fd7f28bac3dccb.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_7825e38eefb2b1cfd9380925427dfe198d0fb93b.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_fbc794bdca68ed07301f85ff867d6948acd1939d.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858760/ss_8b6d4b258622133e628dc88dc96c0a5cdb153c3d.1920x1080.jpg?t=1647388327</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_71ddaff8761a25ad22f6ba0c3b410748a398e61c.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_a7e91968ef0ce40bb6b5e838a27ab74bf9ecea11.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_f1cb62461520bac85bd5aa972e368187edfc7988.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_fcf03e200e982652fd5d73f3b42b8d345102b8f3.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_724206992fdb828c3275ff45c031dd5bd5bfb864.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_deb770feab75ebdd9cf33a8fe22fee42cd12d296.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_3e69c82b9be28467fb79c9cc8c82748572e3a477.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_6f01afbb981f0ad4e1d7e09e7642cd263b1b2aa5.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e5ad98e41f23904e38a234fdb14fb795d1dae90c.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_c93b7fdc7c1bf3ee97afc278f6ef8ee1ddbddd9a.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_b5b91c2c7d75302093dc5e01afc54a735df572d4.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_af6cdaf3b08a59c4d427f2fe387c477833bb66d1.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_0f60fae4297695515e82c0fb3ec0ebc80da7bad7.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_84d8c48e0922983297414686c033428e5abca308.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_5e6f441de7bc02a62b337912cc10492c918f939e.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_bab54705a971b9c2a00689a824f3685550edaeaa.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_d1b2ef39644fc1927f682f40e24de83f6b2f7f3a.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_4563265adf41029e22bfedda527160ca27145d81.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_becc63bb350ad63b799490df7f297014415c7edf.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_095d3d0d492048438131f04834e0cbb7149a0f62.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_388565f3875f0514b6112a0350877592c3a9331b.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_03abc28d228264bbd83fb7171eb83dfd3719cce9.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_c140ee5d93564f2e4aa049a63e6474a94ecaf1c6.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_2144a0786c0830db4c19dc9b0a49ab746b28492a.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_3d730c1b098f1603ed936c67061b4d4869cc4d69.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_65c417855755334d48e4c57a0d60c2dd76f71691.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_17acacc5c867f80bf75a1d0d3f8323652243858b.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e3ff4872fb773edcc2932656a96c70b3d05ef561.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_fad49bfc91f56ea44d9f0ceffd0659666b053d91.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_ee045d1917b24321716034393e636cabc29e47b4.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_801a648d073c30c79a05ff2ba9935367f38b1f85.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_1537b3e47f3f4ea793eac228b1d156952e9a927f.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_2ce660a0d170516594c5702027e9b99aea01564f.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_cafe115f6c756bd1e61b688a91354beb58bfe9e0.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_bc5b4597f147ca35049684fe4ef9b2f9a35a2fdc.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_0758bae0a405488e500a3d3c9ad5f80b9c390123.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_1438f877cdb7b563ad28238299d3fa3f1d4a3469.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_670852dd4888a7162afd544dd03b8d81e0a5fe60.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858770/ss_e4d5216e61992467929c173b74866772c5585318.1920x1080.jpg?t=1640685271</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_adec1ebc0849460aefe38d7a1791a40d910e8bb9.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_c4035ab63ad107bf330764d57f6a8731c8737b8c.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_7f919beeca9961882bd2d7617e7996ece975543f.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_25492f96add3db8f78bde23246d932465bd83058.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_b4305085de4f7ad8ec232e233a4dec06b62bb4b9.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858780/ss_bd32427e2fdc34bc124c1f7e0e087cb9b696e39a.1920x1080.jpg?t=1643779756</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_23e6336b3be5eeaf7968250db788a157388a7a00.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_e2405a7d88320b7df883e881d7eb07ddbc727912.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_751dec1b4e436a9a670355846c96c3e3b3dcac60.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_aff6c633ef45a906c6ef63dca416f4cfa1a18e4b.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_ba05e304f4d3b54639f52c4c0154232ede1816be.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_d39c850267f94163c71bdee8d4299674f77cdf54.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_01433486cac05996e9387da30a2948b5d97870f5.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858810/ss_c0853e20e607619db122c2aec37eed7472e0eac2.1920x1080.jpg?t=1645094047</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_19fae7b1f91948158ceb1c01edf2c0055b9b46c9.1920x1080.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_0a7cbb7a09c22c93cd1eea58aea6b3bcd303dafd.1920x1080.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_e07527e7c87ee9472f39c07965b84bfa2758b55e.1920x1080.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_29fe28ce8d7cdde91f20164ad3f295cc4c60baae.1920x1080.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858860/ss_9495bc9414280ddd5028e5a717ca9e45c6267b94.1920x1080.jpg?t=1642245629</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858870/ss_c6f874455a8563dd928ed331857b070d4b795d64.1920x1080.jpg?t=1640427108</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_770f4aaa354425d80e99ece160d83b6101f43efa.1920x1080.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_00ff00a702383e6af7d2a272ff3be1ba46208e9e.1920x1080.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_8667f3e2f70673ed9172aa204fd0e432431b7cf3.1920x1080.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_76e0af2b692e0e7926647b740709ba3afb8a423f.1920x1080.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858900/ss_521e42c46eaa582e04ccdd4cf6e66bd31c0ded30.1920x1080.jpg?t=1647573194</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_919b159afb0dbeab4070f58d9e03d30275922e73.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_a5eb5a5353d2544a75a4169fb365b11157720d19.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_1943450144f384ac7c6400a50256cb2b69b9188b.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_aec5168496617efe61695b0596210c4b87ade997.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_bd6ec4b5d678be06601c315734e93fc3d4723021.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_66f2851233aef8957a19f175a1e7b9035981d876.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_d62ffb4122e5a2ecfbc1e6d4de5535e6a80fe362.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_e23ed17151b54e4b8dce537319586c688f82f66f.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_4cc238a9bb25b78832d4025ab8035b40f3a2b2ac.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_8b1f2ad7e9dd098b52d5a4656929df3e1dfeb868.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_73ca6f2d3ca0605a1d793b68c88f43da659c554b.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_bb7de3772236142a1e0cb9c413addf0753573a3d.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_c711fd116c54b8038c63a0e34b8b0dc820ee9323.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_87cc854b304c0efd997ae5e8e9655ec87268efdb.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858920/ss_ae5bd018912d1b9dd781f59b00586630d2e2df1d.1920x1080.jpg?t=1645456658</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ce641adf0fa331520f893dbbd64f6ae95656632d.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_3e3aebdd737c6725b34f8a217592c2cc04f57679.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_b42604322b068fc708bc96c3a61e50821f982393.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_d805abf64754a1e64071c2dfa13340317af1a218.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_4d54b832ffdda0ab19b1b28ec2f83e9edfb0efa0.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_60dace7e1be0defa3cbccbfe42945672496d6ba6.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ef2f4d87f75a220ac82c61321d2c0bb497f6194b.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_ec34ce8ff7bdec3d2e071eea5138508cfda49fb9.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858940/ss_e1f0d3580b3bb8e7906eba016986c7d96674b622.1920x1080.jpg?t=1645214785</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_8901aba6e222fb887b2ab17570faf3c03f2b88c3.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_de374cdb9b7a6785b6ae1a0dcccc0970e7563351.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_0e8d215f35c56a22cdd7c1a4f855f556c613b3be.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_6d76c17b77b3a63c2635f7116fdd5029dbf77c4a.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_330f7c07ee4ee9dc64c0cc4cffa29a88cf7384c8.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_0e2b3426c4bf0c20886157ef4f1f686806529c4c.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_4742d4785775c24f643fbd1188f7e13b2d2265e7.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_32fb1ac20a7dfa7df8965f23b8c49155a68cc151.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_c8a0d74b75b27f29235fe6b8e6e7adbbbb8aeb2c.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_d0b10ae6cc7cab3fe2c9365c582695fd5cf75286.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_f645396877f7177e8bbbee42e3c2f55757dfd98b.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_b1c2d2171c83560bf37bc6c0dd5530a818846f7a.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_d718952a96571ab8ac4122fe5e582858460ad204.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_836d88ed0bfd613b8b42658a42027a66c9351d69.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_62da4e5120568f6bf55c3230f64b98a3c078049b.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_3e25ca412c9d35f73782cf24b0a86972863f9615.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858970/ss_2ba5470acad746b83354990f9d1e933ea3000a39.1920x1080.jpg?t=1643502681</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_167d78241b843a2e1934cba8fae338f10e1dee58.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_def69bc28e6118c49e824ebacc680d0790a2c699.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_a95ce847175dd2ab40028e8a03c7a460ea178cd2.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_42aa0ad7c031df07d7108cdc0b2e885621b3227c.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_cb20132c9c429432835e3cbbd9b6ac561520bd75.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_0ae392891c2ea75264e78fa2b5a2a66532571777.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_418dafdd5df4ca20389f06cfbe6e21c08fc47992.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_6860a90775be6bf5702e96b6643b9b29d7124b4c.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_30f11d87dc74230a5ad90079ddd552ffd6c57c85.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858980/ss_f84adb046da431d8ac511813881a381b94171551.1920x1080.jpg?t=1642854334</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_75a67dc40a836cfa74e98cefad770c181c025d97.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_b13cfc9dadad701dd16c16fe8b2144c3dfe5e632.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_b4e1acdd52e7b3f93d134aa95726092e3d73b7a7.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0128e0a3da92a39850eaa2e9523fc63de75a6110.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_ba8fee1aa87bcf800e04c6fa9b681d2c162a3609.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0a1ccfdc033f3ea4201fdc777764d0926137c114.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859010/ss_0c2d7de9263524a31410258550f17f8492cdadcf.1920x1080.jpg?t=1645718316</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_c3bfd7ebf79cc440cf769e9cf777e77f7244724b.1920x1080.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_5ceb33a3a2597dae77fa510afc7d5befb3a732bd.1920x1080.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_f4fe1307be106aa18d96c5d038dae96f94bdb264.1920x1080.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_7ba02899afe3506db68e0dec9bb66ca1fbe152da.1920x1080.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859020/ss_e55527836b24c8179d3a1d9c8cf01d1883aac8f4.1920x1080.jpg?t=1643983731</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_9e75ba64cc447008f88c043c2dbc0f4cf5a72ed8.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_b05b6584f2d83374ba3d58554c1e4ece0bca509f.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_d9157feac73d9c699c0f1d59acb08eacdc873b18.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_bc6a7195d46f5fae28e4cdc4ec5c6cd2d23265a5.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_fd64d862010e7669276d4d74e157394bf44ba4cb.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_b0412acd9a021d910da90b80e746be5d42695e09.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_0a3c74cccea303da1fa6c7edf64a66efd5f5d360.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_bd7c86345b044666452ba809eb0e767f48595617.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_02ae2ced9f9e65459d564e6160dfb1a2e006156a.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_34346caa87fd501279977ce47061cefa3ab5a1f2.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_0e124dca59f5ba90dc293114e96e47976530e61b.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_1c487d20ecdc03c64edc3c43a398f02c55b31bf6.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_ec89ac77e27f505caddf50c96841d78808bc3257.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_71af79cbca58f91aa5da5d7f8fa63e1ab6c6307d.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_1f20472fc6193dc7824050611725ba11a66f0cff.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859030/ss_73edd4bcf84edf653acd6a819e9c8add1cd3431e.1920x1080.jpg?t=1642099142</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_d3d3d0183d90392b3c6749ce830af0d3838cc889.1920x1080.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_f15d55621b05837e28781a7e83c22718c053967a.1920x1080.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_6d330d5b036b7f3760668ac334b34742e615ddb0.1920x1080.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_564d23130ba6eb979355f2deb7ea25c1409159b0.1920x1080.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859060/ss_5064c857a76ff271b16ea7ac634a33f57b11d42a.1920x1080.jpg?t=1646115613</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_89b5aca4c6a9d1b5fad888dd77e1957f638d0c34.1920x1080.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_aad6be14bad9be9700213a98547ce07ed3904f08.1920x1080.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_c678a741eec29ef9fa819274ebde81076cc78f06.1920x1080.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_6fafe6c8621a0fbf2ce57e4dd8c7865104994e00.1920x1080.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859100/ss_2062b69d5c4ad601f9fe04c52cf5f0ef34d092be.1920x1080.jpg?t=1646633006</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_51b836ccadd2f03d23a262004dbcac05abf8db78.1920x1080.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_dcdca1eef6b90b88a118502cdebf444e36bf0f72.1920x1080.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_b2dad632f8528a97fe7a13f5f67c5873023b3b75.1920x1080.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_317f39d991aceb4230c312299bbc4fa282ac6ab8.1920x1080.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859110/ss_1358c1b789a51be9a7d0a1ad7410871772a59a69.1920x1080.jpg?t=1647501436</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_68695af6777ce7825c8427a6af45364ac19896a3.1920x1080.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_872a474c93cdce7459f283e82459fee245886317.1920x1080.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_452c7f86c9b986479b4a1e24038f63856900d7e4.1920x1080.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_3f73f592e61a505bdcc4fcaa9a09a10100f2d1fd.1920x1080.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1859140/ss_53ae1b96ab6b0c7b74a3913426044c6036eda703.1920x1080.jpg?t=1647487301</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_2f7db3d52ddf37c3de6a69494695485915beb5e3.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_36182824d55a54c235c44f91c5174749c271f551.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_0bb9d2e878c68a57aac0d29efe26520139a557e3.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_7ab4fe112394b079be76240f6295abcc547bde2d.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_12ce3a609f112bef7b60ca98f6dc79c7002133d8.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_db1b19fafbdd2c1ebd066eb9d1522994354fe31e.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_05d222f6354cddaa34390bc9314232e6b1e1f8b3.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_4911c4aa97029fff2f0b56742ae4f8198b60b170.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_41b5c01bf09c9111982977a2293d2702df2b16ff.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858210/ss_8c1958d8b69e0591319a3963833e015615eb675c.1920x1080.jpg?t=1640991936</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_3ff35551687571d9d4f8e251cd936361260a01b6.1920x1080.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_2ceb28e6f28203e968d6e07914a796d19d1808ed.1920x1080.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_9b82c0be6cf0d563cb3f007e50946c18f61a1363.1920x1080.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_f0ce6bcbace3c8da030ac9b381f4854504c11808.1920x1080.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858240/ss_f1edff136607eecbda4b221de8f21ba20beb0ef7.1920x1080.jpg?t=1642245766</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_965c50fd37768507254a75aa12e1ee2da5bfc7e1.1920x1080.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_a8797fc3338fa2677d80479ab0ddf1bd5c01d2d1.1920x1080.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_597edc19fbaf371cc84233c5f4c24b190232b73f.1920x1080.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_fb7233d7ae3dd8a1206a16e4408c1ef2ff677305.1920x1080.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858260/ss_3691f9de24cb4cdfb0575c7e5b27e7736787d0c9.1920x1080.jpg?t=1642389625</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_8a991e507af1caca23752ea3c61af8b465eba19c.1920x1080.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_84b2dbe07060048f32c71cce1adcac8c3298441f.1920x1080.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_d5916e0a88c28c094741910fd0b615841b29bd37.1920x1080.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_96865279a8b0b8e2414bf4063cbc51d9920437e4.1920x1080.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858270/ss_c28123175a5bffc2a1f58c921d238cbc241eb1d9.1920x1080.jpg?t=1642787719</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858300/ss_05b6bf98929f6c74d72ce1da8cc4605f6ca87436.1920x1080.jpg?t=1646895484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858301/ss_40cea15ec62a90785902c6629800f2130e47dd7d.1920x1080.jpg?t=1646895481</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858303/ss_d36c6b8789e245c65eec9df47e69f379a2794adb.1920x1080.jpg?t=1646895476</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858305/ss_d86d08708f9d4896105748e1b770ba01d9e18e00.1920x1080.jpg?t=1646895474</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_144bc3ec92bb2adc54189f45aaf06f1ff347538e.1920x1080.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_881099002cf2a7ae8b586ade76da2150ee23fcec.1920x1080.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_aa59cf1e11289d592805971a7ec8ebfd07b8a7f8.1920x1080.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_51d7c02f71f936428dcb4ba9346a79745860c27b.1920x1080.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858400/ss_8ef9cd14fdfd055abb4367d13fd973cf81ebe13b.1920x1080.jpg?t=1646168929</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_150292249c778d95a121b0357146202c5cd89a5e.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_ed4b329b7d2459609972bcb9c9315541e006af68.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_eb5a3f14d6872b48aa2b6869ce6f441849d4c764.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_6e2deca2a05f68c9c1a3f899e8e17cf45380f520.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_64be72a46bfc08e6c85fb71f7d7317a19fc75f91.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_ce98f2cc045a79ab3a0f6c3929fd09b3ad4c32a1.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_fb6db9dd24e2c57eb2ca03dffa9f8dee18e20afe.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_edb2cc4c7edb38856359b639bb34dceb80832f3e.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_e22e9771ff2b5df76601a637a015991691eeaa65.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858410/ss_afb0952bd74950370caf759fdde0f49df444cf25.1920x1080.jpg?t=1646422567</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_36babcb0ea1f7d0671e4d75ae89369e2d50e3eee.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_5704bf195bddf4467006e049d7ba72adb130c0ff.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_f06e3c154b390910a865eaedc119f920bb0d1c5f.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_002b619806b30f222d49bb61922b7db61f0f9a09.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_4ae3b067b0b2235d411a2794bf076d1ca24fa94d.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_bb0f35a46b3b9ec7bbba7ddfc4c0865aa34917d5.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_e2700507af55c2a5ce839455ec550ae7abd62108.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_ea0944b3f90fb128a9d94cc926a98bfaf67be900.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_a9c118e09cfb1f2ea11d66c0d8fcd3e659377949.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858450/ss_441ed3991ef1923be507647085224186c9d6b81e.1920x1080.jpg?t=1647510655</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_ca31be70a75acdc7057a4f6d7368679fd0a7e7b3.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_e4a7446759550109bb5c211e260e3040f4502698.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_db55acf5fb2d3255f9a83f399ff39b984377825d.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_733f38d27ac83c52e410178844057407477d337a.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_00875bd938d530b0ff0b7851838b61a1c1130e29.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_a40621e95e439dc59bec7daf91e898493becc060.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858460/ss_f9f32e2f1c89307ed725a47776dd83362af932ad.1920x1080.jpg?t=1647005677</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858490/ss_878746f8eca5d04128b0d34d200498dd95b77d6e.1920x1080.jpg?t=1641474941</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_dc1993615c5f1ceee43b6b40d8d1d3b464453315.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_2b46d25514e5b7c8b2300b53dfe8d83b81d1b9d9.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_cd9013d920f508f638f32d6c2feafe0ecf1c1b0b.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_01db998843ec1fbe9a43567f167ec90ef282d211.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_a5f4540309a2c2869b8ec764e3aceb70b1f196ba.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_6310079f2c89af75476807a4e91c99a24d58969e.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_81baf142dc16cb06ef9957d90dcea1e142d2cd9b.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858530/ss_98d0768f98eb65625e62802f4cd8e8401af38849.1920x1080.jpg?t=1647870484</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_3d85dcd590a4f70dde3c13aac02fe54d9a360220.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_cb8ae410a202085d9a8fe91fcbd532cfc842ccb0.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_b39bd959d90c2be6a2cf48e1fbd8cc54befa9663.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_5b035228cfe7d362b1dcf8f4b4bee38cf48e6516.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_4537cbd075a217e641ab95c75dc7bd6d2047e873.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858550/ss_adc5f772f20e22641f9c6fbe8099c7a5b529831b.1920x1080.jpg?t=1646592692</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_197d445d002c1a0203ab381f4be564e6c8922fd7.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_0d30c2f8c0964ef9cf539ab7355ae411051f0d11.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_960dc6d253b5421610b343f7a0e6ea997a77bfb7.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_89aa4204481977036ce789ffee7c5e34022537de.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_97392396b539d7f5e25f05f58afcebf564ed1008.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858560/ss_d725115963165b44f2d568b5db0c9794eead3f40.1920x1080.jpg?t=1642236745</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858570/ss_a321767236035d2bd1e2db7045052226fdd9a277.1920x1080.jpg?t=1641474846</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_f7f236e395b24ce6a156f77dfb3336f891d06ab9.1920x1080.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_9a9e08d5665a888b6b1897ba78e7a0edee877ded.1920x1080.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_be702d2db578ca327c95177171a73d84392e69af.1920x1080.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_f71390ac40488b5a4d2ceaf07a37bc3828b57ffd.1920x1080.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858580/ss_4c90276e5f7b802777957cd26b7eab401bb8c860.1920x1080.jpg?t=1643158560</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_994bc8e3db62656bf78bc478c70704b069deb5f5.1920x1080.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_523bc695a3092e4031dab58b3a1d49990ca21853.1920x1080.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_46f39aab79f80f4f2948a3b674781a55ce42ed61.1920x1080.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_4513c44951eb9df698566ae79645c9d0c5be1341.1920x1080.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858600/ss_0cdc2a47eb33531d7206c712fb3a294e2f2c70c3.1920x1080.jpg?t=1644258241</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858610/ss_c9628690348bf3769776431eab1d513109c5ae58.1920x1080.jpg?t=1641474876</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_2cc0aabcb11e500762c0e858f7237e512d82d0be.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_34c335659990697f5e72d2d37dcf5c8c5ad7e4c1.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_51bd427092320d88fbb5896c9f1162895df2dbc8.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_e03cd19beadb42eab2ebcd9e2814b4875a6a9519.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_34938543723731b49ddfc24b159ad64ae9020550.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_bfb280eb24ec7c262012b7aa931ab255e3132fa1.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_1481d9879615c4755f66b85d34d5b214eacf3e8d.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_52e6c173d632b1e3302ba13cf1aa8f6b9b4d3015.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_cf5046da1b01b88bb029d09189145e74c32cd72a.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858620/ss_d2f47f12076c194025fca5238f2108cb51ca2138.1920x1080.jpg?t=1647266652</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_dea6a21510b3ef014855bcc2f8b2d828e65d5ca2.1920x1080.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_33236218505ad8c5044d743f751bb4cca7713eb0.1920x1080.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_01a9ab35c8bf8441283665d55315f5bdeb4116c7.1920x1080.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_5ac7fd14092a4a5cb231f5de03ab9d1bee6d746a.1920x1080.jpg?t=1646137772</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1858650/ss_13e6d93998b915713a1036938669753463ef2a53.1920x1080.jpg?t=1646137772</t>
   </si>
 </sst>
 </file>
@@ -450,7 +2454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,146 +2485,5824 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>347</v>
       </c>
       <c r="E2">
-        <v>1877220</v>
+        <v>1859530</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="E3">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c r="E4">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="E5">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="E6">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="E7">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="E8">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="E9">
-        <v>1877220</v>
+        <v>1859540</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1877220</v>
+      <c r="D19" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E23">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E25">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E30">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E33">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E36">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E37">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E38">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E39">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E42">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E43">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E44">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E46">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E48">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49">
+        <v>1858670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E55">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E58">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E59">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E67">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E70">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E71">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E72">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E73">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E75">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E77">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E78">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E79">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E80">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E81">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E82">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E83">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E84">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E85">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E87">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>15</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E88">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E89">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E90">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E91">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>19</v>
+      </c>
+      <c r="B92">
+        <v>19</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E92">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>20</v>
+      </c>
+      <c r="B93">
+        <v>20</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E93">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>21</v>
+      </c>
+      <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E94">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>22</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E95">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>24</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E97">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>25</v>
+      </c>
+      <c r="B98">
+        <v>25</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E98">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>26</v>
+      </c>
+      <c r="B99">
+        <v>26</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E99">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>27</v>
+      </c>
+      <c r="B100">
+        <v>27</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E100">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>28</v>
+      </c>
+      <c r="B101">
+        <v>28</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E101">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>29</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E102">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>30</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E103">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>31</v>
+      </c>
+      <c r="B104">
+        <v>31</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E104">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E105">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>33</v>
+      </c>
+      <c r="B106">
+        <v>33</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E106">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>34</v>
+      </c>
+      <c r="B107">
+        <v>34</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E107">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>35</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E108">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>36</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>37</v>
+      </c>
+      <c r="B110">
+        <v>37</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E110">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>38</v>
+      </c>
+      <c r="B111">
+        <v>38</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E111">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E112">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E113">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E114">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E115">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E116">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E117">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E118">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E119">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E120">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E121">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E122">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E123">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E124">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E125">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E126">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E127">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>2</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E128">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>3</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E129">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>4</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E130">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E131">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E132">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E133">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E134">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E135">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E136">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E137">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E138">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>2</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E139">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>3</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E140">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>4</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E141">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>5</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E142">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E143">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E144">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E145">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E146">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>10</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E147">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>11</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E148">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>12</v>
+      </c>
+      <c r="B149">
+        <v>12</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E149">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>13</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E150">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>14</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E151">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E152">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E153">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E154">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E155">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E156">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>5</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E157">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>6</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E158">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>7</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E159">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E160">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E161">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E162">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E163">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E164">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E165">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E166">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E167">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E168">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E169">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>9</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E170">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E171">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>11</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E172">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E173">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>13</v>
+      </c>
+      <c r="B174">
+        <v>13</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E174">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E175">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>15</v>
+      </c>
+      <c r="B176">
+        <v>15</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E176">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E177">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E178">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E179">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>2</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E180">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E181">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E182">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>5</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E183">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>6</v>
+      </c>
+      <c r="B184">
+        <v>6</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E184">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E185">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <v>8</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E186">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>9</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E187">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E188">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E189">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E190">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>3</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E191">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E192">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>5</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E193">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>6</v>
+      </c>
+      <c r="B194">
+        <v>6</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E194">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E195">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E196">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>2</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E197">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E198">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>4</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E199">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E200">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E201">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E202">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>3</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E203">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>4</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E204">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E205">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>6</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E206">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>7</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E207">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E208">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>9</v>
+      </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E209">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>10</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E210">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>11</v>
+      </c>
+      <c r="B211">
+        <v>11</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E211">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>12</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E212">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>13</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E213">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>14</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E214">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>15</v>
+      </c>
+      <c r="B215">
+        <v>15</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E215">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E216">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E217">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E218">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>3</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E219">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>4</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E220">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E221">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E222">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E223">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E224">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E225">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E226">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E227">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E228">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>3</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E229">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>4</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E230">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E231">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E232">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E233">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E234">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>4</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E235">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E236">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E237">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E238">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>3</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E239">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>4</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E240">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>5</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E241">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>6</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E242">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>7</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E243">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>8</v>
+      </c>
+      <c r="B244">
+        <v>8</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E244">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>9</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E245">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E246">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E247">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E248">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E249">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E250">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E251">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E252">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E253">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>3</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E254">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>4</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E255">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E256">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E257">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E258">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>3</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E259">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>4</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E260">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E261">
+        <v>1858300</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E262">
+        <v>1858301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E263">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E264">
+        <v>1858305</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E265">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E266">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E267">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>3</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E268">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>4</v>
+      </c>
+      <c r="B269">
+        <v>4</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E269">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E270">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E271">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E272">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>3</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E273">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>4</v>
+      </c>
+      <c r="B274">
+        <v>4</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E274">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>5</v>
+      </c>
+      <c r="B275">
+        <v>5</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E275">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>6</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E276">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>7</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E277">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>8</v>
+      </c>
+      <c r="B278">
+        <v>8</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E278">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>9</v>
+      </c>
+      <c r="B279">
+        <v>9</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E279">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E280">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E281">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E282">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>3</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E283">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>4</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E284">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>5</v>
+      </c>
+      <c r="B285">
+        <v>5</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E285">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>6</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E286">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>7</v>
+      </c>
+      <c r="B287">
+        <v>7</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E287">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>8</v>
+      </c>
+      <c r="B288">
+        <v>8</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E288">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>9</v>
+      </c>
+      <c r="B289">
+        <v>9</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E289">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E290">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E291">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E292">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E293">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>4</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E294">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>5</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E295">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E296">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E297">
+        <v>1858490</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E298">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E299">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E300">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>3</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E301">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>4</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="E302">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>5</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E303">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>6</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E304">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>7</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="E305">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E306">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>1</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E307">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E308">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>3</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E309">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>4</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E310">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E311">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E312">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>1</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E313">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E314">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>3</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E315">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>4</v>
+      </c>
+      <c r="B316">
+        <v>4</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E316">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>5</v>
+      </c>
+      <c r="B317">
+        <v>5</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E317">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E318">
+        <v>1858570</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E319">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>1</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E320">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E321">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>3</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E322">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E323">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E324">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>1</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="E325">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E326">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>3</v>
+      </c>
+      <c r="B327">
+        <v>3</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E327">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>4</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E328">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="E329">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E330">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E331">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E332">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>3</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E333">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>4</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E334">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>5</v>
+      </c>
+      <c r="B335">
+        <v>5</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E335">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>6</v>
+      </c>
+      <c r="B336">
+        <v>6</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E336">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>7</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E337">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>8</v>
+      </c>
+      <c r="B338">
+        <v>8</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E338">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>9</v>
+      </c>
+      <c r="B339">
+        <v>9</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E339">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E340">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E341">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342">
+        <v>2</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E342">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E343">
+        <v>1858650</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>4</v>
+      </c>
+      <c r="B344">
+        <v>4</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E344">
+        <v>1858650</v>
       </c>
     </row>
   </sheetData>
@@ -643,6 +8325,674 @@
     <hyperlink ref="D9" r:id="rId16"/>
     <hyperlink ref="C10" r:id="rId17"/>
     <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="C13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="C15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="C17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="C18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="C19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="C21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="C22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="D23" r:id="rId44"/>
+    <hyperlink ref="C24" r:id="rId45"/>
+    <hyperlink ref="D24" r:id="rId46"/>
+    <hyperlink ref="C25" r:id="rId47"/>
+    <hyperlink ref="D25" r:id="rId48"/>
+    <hyperlink ref="C26" r:id="rId49"/>
+    <hyperlink ref="D26" r:id="rId50"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="D27" r:id="rId52"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="D28" r:id="rId54"/>
+    <hyperlink ref="C29" r:id="rId55"/>
+    <hyperlink ref="D29" r:id="rId56"/>
+    <hyperlink ref="C30" r:id="rId57"/>
+    <hyperlink ref="D30" r:id="rId58"/>
+    <hyperlink ref="C31" r:id="rId59"/>
+    <hyperlink ref="D31" r:id="rId60"/>
+    <hyperlink ref="C32" r:id="rId61"/>
+    <hyperlink ref="D32" r:id="rId62"/>
+    <hyperlink ref="C33" r:id="rId63"/>
+    <hyperlink ref="D33" r:id="rId64"/>
+    <hyperlink ref="C34" r:id="rId65"/>
+    <hyperlink ref="D34" r:id="rId66"/>
+    <hyperlink ref="C35" r:id="rId67"/>
+    <hyperlink ref="D35" r:id="rId68"/>
+    <hyperlink ref="C36" r:id="rId69"/>
+    <hyperlink ref="D36" r:id="rId70"/>
+    <hyperlink ref="C37" r:id="rId71"/>
+    <hyperlink ref="D37" r:id="rId72"/>
+    <hyperlink ref="C38" r:id="rId73"/>
+    <hyperlink ref="D38" r:id="rId74"/>
+    <hyperlink ref="C39" r:id="rId75"/>
+    <hyperlink ref="D39" r:id="rId76"/>
+    <hyperlink ref="C40" r:id="rId77"/>
+    <hyperlink ref="D40" r:id="rId78"/>
+    <hyperlink ref="C41" r:id="rId79"/>
+    <hyperlink ref="D41" r:id="rId80"/>
+    <hyperlink ref="C42" r:id="rId81"/>
+    <hyperlink ref="D42" r:id="rId82"/>
+    <hyperlink ref="C43" r:id="rId83"/>
+    <hyperlink ref="D43" r:id="rId84"/>
+    <hyperlink ref="C44" r:id="rId85"/>
+    <hyperlink ref="D44" r:id="rId86"/>
+    <hyperlink ref="C45" r:id="rId87"/>
+    <hyperlink ref="D45" r:id="rId88"/>
+    <hyperlink ref="C46" r:id="rId89"/>
+    <hyperlink ref="D46" r:id="rId90"/>
+    <hyperlink ref="C47" r:id="rId91"/>
+    <hyperlink ref="D47" r:id="rId92"/>
+    <hyperlink ref="C48" r:id="rId93"/>
+    <hyperlink ref="D48" r:id="rId94"/>
+    <hyperlink ref="C49" r:id="rId95"/>
+    <hyperlink ref="D49" r:id="rId96"/>
+    <hyperlink ref="C50" r:id="rId97"/>
+    <hyperlink ref="D50" r:id="rId98"/>
+    <hyperlink ref="C51" r:id="rId99"/>
+    <hyperlink ref="D51" r:id="rId100"/>
+    <hyperlink ref="C52" r:id="rId101"/>
+    <hyperlink ref="D52" r:id="rId102"/>
+    <hyperlink ref="C53" r:id="rId103"/>
+    <hyperlink ref="D53" r:id="rId104"/>
+    <hyperlink ref="C54" r:id="rId105"/>
+    <hyperlink ref="D54" r:id="rId106"/>
+    <hyperlink ref="C55" r:id="rId107"/>
+    <hyperlink ref="D55" r:id="rId108"/>
+    <hyperlink ref="C56" r:id="rId109"/>
+    <hyperlink ref="D56" r:id="rId110"/>
+    <hyperlink ref="C57" r:id="rId111"/>
+    <hyperlink ref="D57" r:id="rId112"/>
+    <hyperlink ref="C58" r:id="rId113"/>
+    <hyperlink ref="D58" r:id="rId114"/>
+    <hyperlink ref="C59" r:id="rId115"/>
+    <hyperlink ref="D59" r:id="rId116"/>
+    <hyperlink ref="C60" r:id="rId117"/>
+    <hyperlink ref="D60" r:id="rId118"/>
+    <hyperlink ref="C61" r:id="rId119"/>
+    <hyperlink ref="D61" r:id="rId120"/>
+    <hyperlink ref="C62" r:id="rId121"/>
+    <hyperlink ref="D62" r:id="rId122"/>
+    <hyperlink ref="C63" r:id="rId123"/>
+    <hyperlink ref="D63" r:id="rId124"/>
+    <hyperlink ref="C64" r:id="rId125"/>
+    <hyperlink ref="D64" r:id="rId126"/>
+    <hyperlink ref="C65" r:id="rId127"/>
+    <hyperlink ref="D65" r:id="rId128"/>
+    <hyperlink ref="C66" r:id="rId129"/>
+    <hyperlink ref="D66" r:id="rId130"/>
+    <hyperlink ref="C67" r:id="rId131"/>
+    <hyperlink ref="D67" r:id="rId132"/>
+    <hyperlink ref="C68" r:id="rId133"/>
+    <hyperlink ref="D68" r:id="rId134"/>
+    <hyperlink ref="C69" r:id="rId135"/>
+    <hyperlink ref="D69" r:id="rId136"/>
+    <hyperlink ref="C70" r:id="rId137"/>
+    <hyperlink ref="D70" r:id="rId138"/>
+    <hyperlink ref="C71" r:id="rId139"/>
+    <hyperlink ref="D71" r:id="rId140"/>
+    <hyperlink ref="C72" r:id="rId141"/>
+    <hyperlink ref="D72" r:id="rId142"/>
+    <hyperlink ref="C73" r:id="rId143"/>
+    <hyperlink ref="D73" r:id="rId144"/>
+    <hyperlink ref="C74" r:id="rId145"/>
+    <hyperlink ref="D74" r:id="rId146"/>
+    <hyperlink ref="C75" r:id="rId147"/>
+    <hyperlink ref="D75" r:id="rId148"/>
+    <hyperlink ref="C76" r:id="rId149"/>
+    <hyperlink ref="D76" r:id="rId150"/>
+    <hyperlink ref="C77" r:id="rId151"/>
+    <hyperlink ref="D77" r:id="rId152"/>
+    <hyperlink ref="C78" r:id="rId153"/>
+    <hyperlink ref="D78" r:id="rId154"/>
+    <hyperlink ref="C79" r:id="rId155"/>
+    <hyperlink ref="D79" r:id="rId156"/>
+    <hyperlink ref="C80" r:id="rId157"/>
+    <hyperlink ref="D80" r:id="rId158"/>
+    <hyperlink ref="C81" r:id="rId159"/>
+    <hyperlink ref="D81" r:id="rId160"/>
+    <hyperlink ref="C82" r:id="rId161"/>
+    <hyperlink ref="D82" r:id="rId162"/>
+    <hyperlink ref="C83" r:id="rId163"/>
+    <hyperlink ref="D83" r:id="rId164"/>
+    <hyperlink ref="C84" r:id="rId165"/>
+    <hyperlink ref="D84" r:id="rId166"/>
+    <hyperlink ref="C85" r:id="rId167"/>
+    <hyperlink ref="D85" r:id="rId168"/>
+    <hyperlink ref="C86" r:id="rId169"/>
+    <hyperlink ref="D86" r:id="rId170"/>
+    <hyperlink ref="C87" r:id="rId171"/>
+    <hyperlink ref="D87" r:id="rId172"/>
+    <hyperlink ref="C88" r:id="rId173"/>
+    <hyperlink ref="D88" r:id="rId174"/>
+    <hyperlink ref="C89" r:id="rId175"/>
+    <hyperlink ref="D89" r:id="rId176"/>
+    <hyperlink ref="C90" r:id="rId177"/>
+    <hyperlink ref="D90" r:id="rId178"/>
+    <hyperlink ref="C91" r:id="rId179"/>
+    <hyperlink ref="D91" r:id="rId180"/>
+    <hyperlink ref="C92" r:id="rId181"/>
+    <hyperlink ref="D92" r:id="rId182"/>
+    <hyperlink ref="C93" r:id="rId183"/>
+    <hyperlink ref="D93" r:id="rId184"/>
+    <hyperlink ref="C94" r:id="rId185"/>
+    <hyperlink ref="D94" r:id="rId186"/>
+    <hyperlink ref="C95" r:id="rId187"/>
+    <hyperlink ref="D95" r:id="rId188"/>
+    <hyperlink ref="C96" r:id="rId189"/>
+    <hyperlink ref="D96" r:id="rId190"/>
+    <hyperlink ref="C97" r:id="rId191"/>
+    <hyperlink ref="D97" r:id="rId192"/>
+    <hyperlink ref="C98" r:id="rId193"/>
+    <hyperlink ref="D98" r:id="rId194"/>
+    <hyperlink ref="C99" r:id="rId195"/>
+    <hyperlink ref="D99" r:id="rId196"/>
+    <hyperlink ref="C100" r:id="rId197"/>
+    <hyperlink ref="D100" r:id="rId198"/>
+    <hyperlink ref="C101" r:id="rId199"/>
+    <hyperlink ref="D101" r:id="rId200"/>
+    <hyperlink ref="C102" r:id="rId201"/>
+    <hyperlink ref="D102" r:id="rId202"/>
+    <hyperlink ref="C103" r:id="rId203"/>
+    <hyperlink ref="D103" r:id="rId204"/>
+    <hyperlink ref="C104" r:id="rId205"/>
+    <hyperlink ref="D104" r:id="rId206"/>
+    <hyperlink ref="C105" r:id="rId207"/>
+    <hyperlink ref="D105" r:id="rId208"/>
+    <hyperlink ref="C106" r:id="rId209"/>
+    <hyperlink ref="D106" r:id="rId210"/>
+    <hyperlink ref="C107" r:id="rId211"/>
+    <hyperlink ref="D107" r:id="rId212"/>
+    <hyperlink ref="C108" r:id="rId213"/>
+    <hyperlink ref="D108" r:id="rId214"/>
+    <hyperlink ref="C109" r:id="rId215"/>
+    <hyperlink ref="D109" r:id="rId216"/>
+    <hyperlink ref="C110" r:id="rId217"/>
+    <hyperlink ref="D110" r:id="rId218"/>
+    <hyperlink ref="C111" r:id="rId219"/>
+    <hyperlink ref="D111" r:id="rId220"/>
+    <hyperlink ref="C112" r:id="rId221"/>
+    <hyperlink ref="D112" r:id="rId222"/>
+    <hyperlink ref="C113" r:id="rId223"/>
+    <hyperlink ref="D113" r:id="rId224"/>
+    <hyperlink ref="C114" r:id="rId225"/>
+    <hyperlink ref="D114" r:id="rId226"/>
+    <hyperlink ref="C115" r:id="rId227"/>
+    <hyperlink ref="D115" r:id="rId228"/>
+    <hyperlink ref="C116" r:id="rId229"/>
+    <hyperlink ref="D116" r:id="rId230"/>
+    <hyperlink ref="C117" r:id="rId231"/>
+    <hyperlink ref="D117" r:id="rId232"/>
+    <hyperlink ref="C118" r:id="rId233"/>
+    <hyperlink ref="D118" r:id="rId234"/>
+    <hyperlink ref="C119" r:id="rId235"/>
+    <hyperlink ref="D119" r:id="rId236"/>
+    <hyperlink ref="C120" r:id="rId237"/>
+    <hyperlink ref="D120" r:id="rId238"/>
+    <hyperlink ref="C121" r:id="rId239"/>
+    <hyperlink ref="D121" r:id="rId240"/>
+    <hyperlink ref="C122" r:id="rId241"/>
+    <hyperlink ref="D122" r:id="rId242"/>
+    <hyperlink ref="C123" r:id="rId243"/>
+    <hyperlink ref="D123" r:id="rId244"/>
+    <hyperlink ref="C124" r:id="rId245"/>
+    <hyperlink ref="D124" r:id="rId246"/>
+    <hyperlink ref="C125" r:id="rId247"/>
+    <hyperlink ref="D125" r:id="rId248"/>
+    <hyperlink ref="C126" r:id="rId249"/>
+    <hyperlink ref="D126" r:id="rId250"/>
+    <hyperlink ref="C127" r:id="rId251"/>
+    <hyperlink ref="D127" r:id="rId252"/>
+    <hyperlink ref="C128" r:id="rId253"/>
+    <hyperlink ref="D128" r:id="rId254"/>
+    <hyperlink ref="C129" r:id="rId255"/>
+    <hyperlink ref="D129" r:id="rId256"/>
+    <hyperlink ref="C130" r:id="rId257"/>
+    <hyperlink ref="D130" r:id="rId258"/>
+    <hyperlink ref="C131" r:id="rId259"/>
+    <hyperlink ref="D131" r:id="rId260"/>
+    <hyperlink ref="C132" r:id="rId261"/>
+    <hyperlink ref="D132" r:id="rId262"/>
+    <hyperlink ref="C133" r:id="rId263"/>
+    <hyperlink ref="D133" r:id="rId264"/>
+    <hyperlink ref="C134" r:id="rId265"/>
+    <hyperlink ref="D134" r:id="rId266"/>
+    <hyperlink ref="C135" r:id="rId267"/>
+    <hyperlink ref="D135" r:id="rId268"/>
+    <hyperlink ref="C136" r:id="rId269"/>
+    <hyperlink ref="D136" r:id="rId270"/>
+    <hyperlink ref="C137" r:id="rId271"/>
+    <hyperlink ref="D137" r:id="rId272"/>
+    <hyperlink ref="C138" r:id="rId273"/>
+    <hyperlink ref="D138" r:id="rId274"/>
+    <hyperlink ref="C139" r:id="rId275"/>
+    <hyperlink ref="D139" r:id="rId276"/>
+    <hyperlink ref="C140" r:id="rId277"/>
+    <hyperlink ref="D140" r:id="rId278"/>
+    <hyperlink ref="C141" r:id="rId279"/>
+    <hyperlink ref="D141" r:id="rId280"/>
+    <hyperlink ref="C142" r:id="rId281"/>
+    <hyperlink ref="D142" r:id="rId282"/>
+    <hyperlink ref="C143" r:id="rId283"/>
+    <hyperlink ref="D143" r:id="rId284"/>
+    <hyperlink ref="C144" r:id="rId285"/>
+    <hyperlink ref="D144" r:id="rId286"/>
+    <hyperlink ref="C145" r:id="rId287"/>
+    <hyperlink ref="D145" r:id="rId288"/>
+    <hyperlink ref="C146" r:id="rId289"/>
+    <hyperlink ref="D146" r:id="rId290"/>
+    <hyperlink ref="C147" r:id="rId291"/>
+    <hyperlink ref="D147" r:id="rId292"/>
+    <hyperlink ref="C148" r:id="rId293"/>
+    <hyperlink ref="D148" r:id="rId294"/>
+    <hyperlink ref="C149" r:id="rId295"/>
+    <hyperlink ref="D149" r:id="rId296"/>
+    <hyperlink ref="C150" r:id="rId297"/>
+    <hyperlink ref="D150" r:id="rId298"/>
+    <hyperlink ref="C151" r:id="rId299"/>
+    <hyperlink ref="D151" r:id="rId300"/>
+    <hyperlink ref="C152" r:id="rId301"/>
+    <hyperlink ref="D152" r:id="rId302"/>
+    <hyperlink ref="C153" r:id="rId303"/>
+    <hyperlink ref="D153" r:id="rId304"/>
+    <hyperlink ref="C154" r:id="rId305"/>
+    <hyperlink ref="D154" r:id="rId306"/>
+    <hyperlink ref="C155" r:id="rId307"/>
+    <hyperlink ref="D155" r:id="rId308"/>
+    <hyperlink ref="C156" r:id="rId309"/>
+    <hyperlink ref="D156" r:id="rId310"/>
+    <hyperlink ref="C157" r:id="rId311"/>
+    <hyperlink ref="D157" r:id="rId312"/>
+    <hyperlink ref="C158" r:id="rId313"/>
+    <hyperlink ref="D158" r:id="rId314"/>
+    <hyperlink ref="C159" r:id="rId315"/>
+    <hyperlink ref="D159" r:id="rId316"/>
+    <hyperlink ref="C160" r:id="rId317"/>
+    <hyperlink ref="D160" r:id="rId318"/>
+    <hyperlink ref="C161" r:id="rId319"/>
+    <hyperlink ref="D161" r:id="rId320"/>
+    <hyperlink ref="C162" r:id="rId321"/>
+    <hyperlink ref="D162" r:id="rId322"/>
+    <hyperlink ref="C163" r:id="rId323"/>
+    <hyperlink ref="D163" r:id="rId324"/>
+    <hyperlink ref="C164" r:id="rId325"/>
+    <hyperlink ref="D164" r:id="rId326"/>
+    <hyperlink ref="C165" r:id="rId327"/>
+    <hyperlink ref="D165" r:id="rId328"/>
+    <hyperlink ref="C166" r:id="rId329"/>
+    <hyperlink ref="D166" r:id="rId330"/>
+    <hyperlink ref="C167" r:id="rId331"/>
+    <hyperlink ref="D167" r:id="rId332"/>
+    <hyperlink ref="C168" r:id="rId333"/>
+    <hyperlink ref="D168" r:id="rId334"/>
+    <hyperlink ref="C169" r:id="rId335"/>
+    <hyperlink ref="D169" r:id="rId336"/>
+    <hyperlink ref="C170" r:id="rId337"/>
+    <hyperlink ref="D170" r:id="rId338"/>
+    <hyperlink ref="C171" r:id="rId339"/>
+    <hyperlink ref="D171" r:id="rId340"/>
+    <hyperlink ref="C172" r:id="rId341"/>
+    <hyperlink ref="D172" r:id="rId342"/>
+    <hyperlink ref="C173" r:id="rId343"/>
+    <hyperlink ref="D173" r:id="rId344"/>
+    <hyperlink ref="C174" r:id="rId345"/>
+    <hyperlink ref="D174" r:id="rId346"/>
+    <hyperlink ref="C175" r:id="rId347"/>
+    <hyperlink ref="D175" r:id="rId348"/>
+    <hyperlink ref="C176" r:id="rId349"/>
+    <hyperlink ref="D176" r:id="rId350"/>
+    <hyperlink ref="C177" r:id="rId351"/>
+    <hyperlink ref="D177" r:id="rId352"/>
+    <hyperlink ref="C178" r:id="rId353"/>
+    <hyperlink ref="D178" r:id="rId354"/>
+    <hyperlink ref="C179" r:id="rId355"/>
+    <hyperlink ref="D179" r:id="rId356"/>
+    <hyperlink ref="C180" r:id="rId357"/>
+    <hyperlink ref="D180" r:id="rId358"/>
+    <hyperlink ref="C181" r:id="rId359"/>
+    <hyperlink ref="D181" r:id="rId360"/>
+    <hyperlink ref="C182" r:id="rId361"/>
+    <hyperlink ref="D182" r:id="rId362"/>
+    <hyperlink ref="C183" r:id="rId363"/>
+    <hyperlink ref="D183" r:id="rId364"/>
+    <hyperlink ref="C184" r:id="rId365"/>
+    <hyperlink ref="D184" r:id="rId366"/>
+    <hyperlink ref="C185" r:id="rId367"/>
+    <hyperlink ref="D185" r:id="rId368"/>
+    <hyperlink ref="C186" r:id="rId369"/>
+    <hyperlink ref="D186" r:id="rId370"/>
+    <hyperlink ref="C187" r:id="rId371"/>
+    <hyperlink ref="D187" r:id="rId372"/>
+    <hyperlink ref="C188" r:id="rId373"/>
+    <hyperlink ref="D188" r:id="rId374"/>
+    <hyperlink ref="C189" r:id="rId375"/>
+    <hyperlink ref="D189" r:id="rId376"/>
+    <hyperlink ref="C190" r:id="rId377"/>
+    <hyperlink ref="D190" r:id="rId378"/>
+    <hyperlink ref="C191" r:id="rId379"/>
+    <hyperlink ref="D191" r:id="rId380"/>
+    <hyperlink ref="C192" r:id="rId381"/>
+    <hyperlink ref="D192" r:id="rId382"/>
+    <hyperlink ref="C193" r:id="rId383"/>
+    <hyperlink ref="D193" r:id="rId384"/>
+    <hyperlink ref="C194" r:id="rId385"/>
+    <hyperlink ref="D194" r:id="rId386"/>
+    <hyperlink ref="C195" r:id="rId387"/>
+    <hyperlink ref="D195" r:id="rId388"/>
+    <hyperlink ref="C196" r:id="rId389"/>
+    <hyperlink ref="D196" r:id="rId390"/>
+    <hyperlink ref="C197" r:id="rId391"/>
+    <hyperlink ref="D197" r:id="rId392"/>
+    <hyperlink ref="C198" r:id="rId393"/>
+    <hyperlink ref="D198" r:id="rId394"/>
+    <hyperlink ref="C199" r:id="rId395"/>
+    <hyperlink ref="D199" r:id="rId396"/>
+    <hyperlink ref="C200" r:id="rId397"/>
+    <hyperlink ref="D200" r:id="rId398"/>
+    <hyperlink ref="C201" r:id="rId399"/>
+    <hyperlink ref="D201" r:id="rId400"/>
+    <hyperlink ref="C202" r:id="rId401"/>
+    <hyperlink ref="D202" r:id="rId402"/>
+    <hyperlink ref="C203" r:id="rId403"/>
+    <hyperlink ref="D203" r:id="rId404"/>
+    <hyperlink ref="C204" r:id="rId405"/>
+    <hyperlink ref="D204" r:id="rId406"/>
+    <hyperlink ref="C205" r:id="rId407"/>
+    <hyperlink ref="D205" r:id="rId408"/>
+    <hyperlink ref="C206" r:id="rId409"/>
+    <hyperlink ref="D206" r:id="rId410"/>
+    <hyperlink ref="C207" r:id="rId411"/>
+    <hyperlink ref="D207" r:id="rId412"/>
+    <hyperlink ref="C208" r:id="rId413"/>
+    <hyperlink ref="D208" r:id="rId414"/>
+    <hyperlink ref="C209" r:id="rId415"/>
+    <hyperlink ref="D209" r:id="rId416"/>
+    <hyperlink ref="C210" r:id="rId417"/>
+    <hyperlink ref="D210" r:id="rId418"/>
+    <hyperlink ref="C211" r:id="rId419"/>
+    <hyperlink ref="D211" r:id="rId420"/>
+    <hyperlink ref="C212" r:id="rId421"/>
+    <hyperlink ref="D212" r:id="rId422"/>
+    <hyperlink ref="C213" r:id="rId423"/>
+    <hyperlink ref="D213" r:id="rId424"/>
+    <hyperlink ref="C214" r:id="rId425"/>
+    <hyperlink ref="D214" r:id="rId426"/>
+    <hyperlink ref="C215" r:id="rId427"/>
+    <hyperlink ref="D215" r:id="rId428"/>
+    <hyperlink ref="C216" r:id="rId429"/>
+    <hyperlink ref="D216" r:id="rId430"/>
+    <hyperlink ref="C217" r:id="rId431"/>
+    <hyperlink ref="D217" r:id="rId432"/>
+    <hyperlink ref="C218" r:id="rId433"/>
+    <hyperlink ref="D218" r:id="rId434"/>
+    <hyperlink ref="C219" r:id="rId435"/>
+    <hyperlink ref="D219" r:id="rId436"/>
+    <hyperlink ref="C220" r:id="rId437"/>
+    <hyperlink ref="D220" r:id="rId438"/>
+    <hyperlink ref="C221" r:id="rId439"/>
+    <hyperlink ref="D221" r:id="rId440"/>
+    <hyperlink ref="C222" r:id="rId441"/>
+    <hyperlink ref="D222" r:id="rId442"/>
+    <hyperlink ref="C223" r:id="rId443"/>
+    <hyperlink ref="D223" r:id="rId444"/>
+    <hyperlink ref="C224" r:id="rId445"/>
+    <hyperlink ref="D224" r:id="rId446"/>
+    <hyperlink ref="C225" r:id="rId447"/>
+    <hyperlink ref="D225" r:id="rId448"/>
+    <hyperlink ref="C226" r:id="rId449"/>
+    <hyperlink ref="D226" r:id="rId450"/>
+    <hyperlink ref="C227" r:id="rId451"/>
+    <hyperlink ref="D227" r:id="rId452"/>
+    <hyperlink ref="C228" r:id="rId453"/>
+    <hyperlink ref="D228" r:id="rId454"/>
+    <hyperlink ref="C229" r:id="rId455"/>
+    <hyperlink ref="D229" r:id="rId456"/>
+    <hyperlink ref="C230" r:id="rId457"/>
+    <hyperlink ref="D230" r:id="rId458"/>
+    <hyperlink ref="C231" r:id="rId459"/>
+    <hyperlink ref="D231" r:id="rId460"/>
+    <hyperlink ref="C232" r:id="rId461"/>
+    <hyperlink ref="D232" r:id="rId462"/>
+    <hyperlink ref="C233" r:id="rId463"/>
+    <hyperlink ref="D233" r:id="rId464"/>
+    <hyperlink ref="C234" r:id="rId465"/>
+    <hyperlink ref="D234" r:id="rId466"/>
+    <hyperlink ref="C235" r:id="rId467"/>
+    <hyperlink ref="D235" r:id="rId468"/>
+    <hyperlink ref="C236" r:id="rId469"/>
+    <hyperlink ref="D236" r:id="rId470"/>
+    <hyperlink ref="C237" r:id="rId471"/>
+    <hyperlink ref="D237" r:id="rId472"/>
+    <hyperlink ref="C238" r:id="rId473"/>
+    <hyperlink ref="D238" r:id="rId474"/>
+    <hyperlink ref="C239" r:id="rId475"/>
+    <hyperlink ref="D239" r:id="rId476"/>
+    <hyperlink ref="C240" r:id="rId477"/>
+    <hyperlink ref="D240" r:id="rId478"/>
+    <hyperlink ref="C241" r:id="rId479"/>
+    <hyperlink ref="D241" r:id="rId480"/>
+    <hyperlink ref="C242" r:id="rId481"/>
+    <hyperlink ref="D242" r:id="rId482"/>
+    <hyperlink ref="C243" r:id="rId483"/>
+    <hyperlink ref="D243" r:id="rId484"/>
+    <hyperlink ref="C244" r:id="rId485"/>
+    <hyperlink ref="D244" r:id="rId486"/>
+    <hyperlink ref="C245" r:id="rId487"/>
+    <hyperlink ref="D245" r:id="rId488"/>
+    <hyperlink ref="C246" r:id="rId489"/>
+    <hyperlink ref="D246" r:id="rId490"/>
+    <hyperlink ref="C247" r:id="rId491"/>
+    <hyperlink ref="D247" r:id="rId492"/>
+    <hyperlink ref="C248" r:id="rId493"/>
+    <hyperlink ref="D248" r:id="rId494"/>
+    <hyperlink ref="C249" r:id="rId495"/>
+    <hyperlink ref="D249" r:id="rId496"/>
+    <hyperlink ref="C250" r:id="rId497"/>
+    <hyperlink ref="D250" r:id="rId498"/>
+    <hyperlink ref="C251" r:id="rId499"/>
+    <hyperlink ref="D251" r:id="rId500"/>
+    <hyperlink ref="C252" r:id="rId501"/>
+    <hyperlink ref="D252" r:id="rId502"/>
+    <hyperlink ref="C253" r:id="rId503"/>
+    <hyperlink ref="D253" r:id="rId504"/>
+    <hyperlink ref="C254" r:id="rId505"/>
+    <hyperlink ref="D254" r:id="rId506"/>
+    <hyperlink ref="C255" r:id="rId507"/>
+    <hyperlink ref="D255" r:id="rId508"/>
+    <hyperlink ref="C256" r:id="rId509"/>
+    <hyperlink ref="D256" r:id="rId510"/>
+    <hyperlink ref="C257" r:id="rId511"/>
+    <hyperlink ref="D257" r:id="rId512"/>
+    <hyperlink ref="C258" r:id="rId513"/>
+    <hyperlink ref="D258" r:id="rId514"/>
+    <hyperlink ref="C259" r:id="rId515"/>
+    <hyperlink ref="D259" r:id="rId516"/>
+    <hyperlink ref="C260" r:id="rId517"/>
+    <hyperlink ref="D260" r:id="rId518"/>
+    <hyperlink ref="C261" r:id="rId519"/>
+    <hyperlink ref="D261" r:id="rId520"/>
+    <hyperlink ref="C262" r:id="rId521"/>
+    <hyperlink ref="D262" r:id="rId522"/>
+    <hyperlink ref="C263" r:id="rId523"/>
+    <hyperlink ref="D263" r:id="rId524"/>
+    <hyperlink ref="C264" r:id="rId525"/>
+    <hyperlink ref="D264" r:id="rId526"/>
+    <hyperlink ref="C265" r:id="rId527"/>
+    <hyperlink ref="D265" r:id="rId528"/>
+    <hyperlink ref="C266" r:id="rId529"/>
+    <hyperlink ref="D266" r:id="rId530"/>
+    <hyperlink ref="C267" r:id="rId531"/>
+    <hyperlink ref="D267" r:id="rId532"/>
+    <hyperlink ref="C268" r:id="rId533"/>
+    <hyperlink ref="D268" r:id="rId534"/>
+    <hyperlink ref="C269" r:id="rId535"/>
+    <hyperlink ref="D269" r:id="rId536"/>
+    <hyperlink ref="C270" r:id="rId537"/>
+    <hyperlink ref="D270" r:id="rId538"/>
+    <hyperlink ref="C271" r:id="rId539"/>
+    <hyperlink ref="D271" r:id="rId540"/>
+    <hyperlink ref="C272" r:id="rId541"/>
+    <hyperlink ref="D272" r:id="rId542"/>
+    <hyperlink ref="C273" r:id="rId543"/>
+    <hyperlink ref="D273" r:id="rId544"/>
+    <hyperlink ref="C274" r:id="rId545"/>
+    <hyperlink ref="D274" r:id="rId546"/>
+    <hyperlink ref="C275" r:id="rId547"/>
+    <hyperlink ref="D275" r:id="rId548"/>
+    <hyperlink ref="C276" r:id="rId549"/>
+    <hyperlink ref="D276" r:id="rId550"/>
+    <hyperlink ref="C277" r:id="rId551"/>
+    <hyperlink ref="D277" r:id="rId552"/>
+    <hyperlink ref="C278" r:id="rId553"/>
+    <hyperlink ref="D278" r:id="rId554"/>
+    <hyperlink ref="C279" r:id="rId555"/>
+    <hyperlink ref="D279" r:id="rId556"/>
+    <hyperlink ref="C280" r:id="rId557"/>
+    <hyperlink ref="D280" r:id="rId558"/>
+    <hyperlink ref="C281" r:id="rId559"/>
+    <hyperlink ref="D281" r:id="rId560"/>
+    <hyperlink ref="C282" r:id="rId561"/>
+    <hyperlink ref="D282" r:id="rId562"/>
+    <hyperlink ref="C283" r:id="rId563"/>
+    <hyperlink ref="D283" r:id="rId564"/>
+    <hyperlink ref="C284" r:id="rId565"/>
+    <hyperlink ref="D284" r:id="rId566"/>
+    <hyperlink ref="C285" r:id="rId567"/>
+    <hyperlink ref="D285" r:id="rId568"/>
+    <hyperlink ref="C286" r:id="rId569"/>
+    <hyperlink ref="D286" r:id="rId570"/>
+    <hyperlink ref="C287" r:id="rId571"/>
+    <hyperlink ref="D287" r:id="rId572"/>
+    <hyperlink ref="C288" r:id="rId573"/>
+    <hyperlink ref="D288" r:id="rId574"/>
+    <hyperlink ref="C289" r:id="rId575"/>
+    <hyperlink ref="D289" r:id="rId576"/>
+    <hyperlink ref="C290" r:id="rId577"/>
+    <hyperlink ref="D290" r:id="rId578"/>
+    <hyperlink ref="C291" r:id="rId579"/>
+    <hyperlink ref="D291" r:id="rId580"/>
+    <hyperlink ref="C292" r:id="rId581"/>
+    <hyperlink ref="D292" r:id="rId582"/>
+    <hyperlink ref="C293" r:id="rId583"/>
+    <hyperlink ref="D293" r:id="rId584"/>
+    <hyperlink ref="C294" r:id="rId585"/>
+    <hyperlink ref="D294" r:id="rId586"/>
+    <hyperlink ref="C295" r:id="rId587"/>
+    <hyperlink ref="D295" r:id="rId588"/>
+    <hyperlink ref="C296" r:id="rId589"/>
+    <hyperlink ref="D296" r:id="rId590"/>
+    <hyperlink ref="C297" r:id="rId591"/>
+    <hyperlink ref="D297" r:id="rId592"/>
+    <hyperlink ref="C298" r:id="rId593"/>
+    <hyperlink ref="D298" r:id="rId594"/>
+    <hyperlink ref="C299" r:id="rId595"/>
+    <hyperlink ref="D299" r:id="rId596"/>
+    <hyperlink ref="C300" r:id="rId597"/>
+    <hyperlink ref="D300" r:id="rId598"/>
+    <hyperlink ref="C301" r:id="rId599"/>
+    <hyperlink ref="D301" r:id="rId600"/>
+    <hyperlink ref="C302" r:id="rId601"/>
+    <hyperlink ref="D302" r:id="rId602"/>
+    <hyperlink ref="C303" r:id="rId603"/>
+    <hyperlink ref="D303" r:id="rId604"/>
+    <hyperlink ref="C304" r:id="rId605"/>
+    <hyperlink ref="D304" r:id="rId606"/>
+    <hyperlink ref="C305" r:id="rId607"/>
+    <hyperlink ref="D305" r:id="rId608"/>
+    <hyperlink ref="C306" r:id="rId609"/>
+    <hyperlink ref="D306" r:id="rId610"/>
+    <hyperlink ref="C307" r:id="rId611"/>
+    <hyperlink ref="D307" r:id="rId612"/>
+    <hyperlink ref="C308" r:id="rId613"/>
+    <hyperlink ref="D308" r:id="rId614"/>
+    <hyperlink ref="C309" r:id="rId615"/>
+    <hyperlink ref="D309" r:id="rId616"/>
+    <hyperlink ref="C310" r:id="rId617"/>
+    <hyperlink ref="D310" r:id="rId618"/>
+    <hyperlink ref="C311" r:id="rId619"/>
+    <hyperlink ref="D311" r:id="rId620"/>
+    <hyperlink ref="C312" r:id="rId621"/>
+    <hyperlink ref="D312" r:id="rId622"/>
+    <hyperlink ref="C313" r:id="rId623"/>
+    <hyperlink ref="D313" r:id="rId624"/>
+    <hyperlink ref="C314" r:id="rId625"/>
+    <hyperlink ref="D314" r:id="rId626"/>
+    <hyperlink ref="C315" r:id="rId627"/>
+    <hyperlink ref="D315" r:id="rId628"/>
+    <hyperlink ref="C316" r:id="rId629"/>
+    <hyperlink ref="D316" r:id="rId630"/>
+    <hyperlink ref="C317" r:id="rId631"/>
+    <hyperlink ref="D317" r:id="rId632"/>
+    <hyperlink ref="C318" r:id="rId633"/>
+    <hyperlink ref="D318" r:id="rId634"/>
+    <hyperlink ref="C319" r:id="rId635"/>
+    <hyperlink ref="D319" r:id="rId636"/>
+    <hyperlink ref="C320" r:id="rId637"/>
+    <hyperlink ref="D320" r:id="rId638"/>
+    <hyperlink ref="C321" r:id="rId639"/>
+    <hyperlink ref="D321" r:id="rId640"/>
+    <hyperlink ref="C322" r:id="rId641"/>
+    <hyperlink ref="D322" r:id="rId642"/>
+    <hyperlink ref="C323" r:id="rId643"/>
+    <hyperlink ref="D323" r:id="rId644"/>
+    <hyperlink ref="C324" r:id="rId645"/>
+    <hyperlink ref="D324" r:id="rId646"/>
+    <hyperlink ref="C325" r:id="rId647"/>
+    <hyperlink ref="D325" r:id="rId648"/>
+    <hyperlink ref="C326" r:id="rId649"/>
+    <hyperlink ref="D326" r:id="rId650"/>
+    <hyperlink ref="C327" r:id="rId651"/>
+    <hyperlink ref="D327" r:id="rId652"/>
+    <hyperlink ref="C328" r:id="rId653"/>
+    <hyperlink ref="D328" r:id="rId654"/>
+    <hyperlink ref="C329" r:id="rId655"/>
+    <hyperlink ref="D329" r:id="rId656"/>
+    <hyperlink ref="C330" r:id="rId657"/>
+    <hyperlink ref="D330" r:id="rId658"/>
+    <hyperlink ref="C331" r:id="rId659"/>
+    <hyperlink ref="D331" r:id="rId660"/>
+    <hyperlink ref="C332" r:id="rId661"/>
+    <hyperlink ref="D332" r:id="rId662"/>
+    <hyperlink ref="C333" r:id="rId663"/>
+    <hyperlink ref="D333" r:id="rId664"/>
+    <hyperlink ref="C334" r:id="rId665"/>
+    <hyperlink ref="D334" r:id="rId666"/>
+    <hyperlink ref="C335" r:id="rId667"/>
+    <hyperlink ref="D335" r:id="rId668"/>
+    <hyperlink ref="C336" r:id="rId669"/>
+    <hyperlink ref="D336" r:id="rId670"/>
+    <hyperlink ref="C337" r:id="rId671"/>
+    <hyperlink ref="D337" r:id="rId672"/>
+    <hyperlink ref="C338" r:id="rId673"/>
+    <hyperlink ref="D338" r:id="rId674"/>
+    <hyperlink ref="C339" r:id="rId675"/>
+    <hyperlink ref="D339" r:id="rId676"/>
+    <hyperlink ref="C340" r:id="rId677"/>
+    <hyperlink ref="D340" r:id="rId678"/>
+    <hyperlink ref="C341" r:id="rId679"/>
+    <hyperlink ref="D341" r:id="rId680"/>
+    <hyperlink ref="C342" r:id="rId681"/>
+    <hyperlink ref="D342" r:id="rId682"/>
+    <hyperlink ref="C343" r:id="rId683"/>
+    <hyperlink ref="D343" r:id="rId684"/>
+    <hyperlink ref="C344" r:id="rId685"/>
+    <hyperlink ref="D344" r:id="rId686"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
